--- a/Intro to Automation/Manual Motor Controls/Jobs/MMC Job Devices.xlsx
+++ b/Intro to Automation/Manual Motor Controls/Jobs/MMC Job Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwleigh\Documents\ET\Intro to Automation\Manual Motor Controls\Jobs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2477E77C-1730-47FD-B47D-93DF31B8F2E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07762AF7-C993-412E-A72D-01994D643B26}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="5" xr2:uid="{A4592CBA-BCF2-4AE0-9B78-5006722F81EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" activeTab="7" xr2:uid="{A4592CBA-BCF2-4AE0-9B78-5006722F81EC}"/>
   </bookViews>
   <sheets>
     <sheet name="MMC Job 04" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="MMC Job 08" sheetId="5" r:id="rId3"/>
     <sheet name="MMC Job 09" sheetId="4" r:id="rId4"/>
     <sheet name="MMC Job 10" sheetId="1" r:id="rId5"/>
-    <sheet name="MMC Job 12" sheetId="3" r:id="rId6"/>
-    <sheet name="Devices" sheetId="2" r:id="rId7"/>
+    <sheet name="MMC Job 11" sheetId="8" r:id="rId6"/>
+    <sheet name="MMC Job 12" sheetId="3" r:id="rId7"/>
+    <sheet name="Devices" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Devices">Devices!$A$3:$C$9</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="91">
   <si>
     <t>Inputs</t>
   </si>
@@ -394,18 +395,18 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -730,118 +731,118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -886,130 +887,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1054,148 +1055,148 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1240,154 +1241,154 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1432,160 +1433,160 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1627,169 +1628,367 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7338AF1-CC8B-4E2D-BF7D-91E2163404BF}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A18" xr:uid="{F61F6E47-724B-4D64-9CB9-862E74A3DAB0}">
+      <formula1>$B$3:$B$9</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{113FBFB6-B073-4711-9CF7-4725B37747B3}">
+          <x14:formula1>
+            <xm:f>Devices!$B$3:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7697841A-0AE3-442F-8C31-91591CBB1166}">
+          <x14:formula1>
+            <xm:f>Devices!$F$3:$F$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>A12:A17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB66C08-14C2-4D4E-8AA0-1E61855FA476}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="28.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" s="6" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:3" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1824,11 +2023,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9593BE8A-D0DD-4083-9D84-DE67A2CC5204}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1842,16 +2041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2025,24 +2224,24 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>67</v>
       </c>
     </row>
